--- a/jam-2024-artificial.xlsx
+++ b/jam-2024-artificial.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\68596\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\68596\Documents\GitHub\HDR-ED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0ACB9E7C-828B-4495-9F1D-1DD04F7D07C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C455170-705F-4C58-AA9E-1A224FB4C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1320" windowWidth="20085" windowHeight="13035" xr2:uid="{A4DC305C-B40F-48CF-A12A-E2ECBB48348C}"/>
+    <workbookView xWindow="9735" yWindow="1050" windowWidth="16740" windowHeight="13035" xr2:uid="{A4DC305C-B40F-48CF-A12A-E2ECBB48348C}"/>
   </bookViews>
   <sheets>
     <sheet name="jam-2024-artificial" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>H1</t>
   </si>
@@ -41,6 +54,12 @@
   </si>
   <si>
     <t>Y2</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
   </si>
 </sst>
 </file>
@@ -888,18 +907,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E04641-F752-401B-818A-A554A3C15657}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -916,13 +935,19 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>-0.56047564655221305</v>
       </c>
@@ -939,13 +964,19 @@
         <v>1.0255713696966999</v>
       </c>
       <c r="F2" s="1">
+        <v>-0.71040656369930932</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.65194990169545974</v>
+      </c>
+      <c r="H2" s="1">
         <v>7.8816646219969</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>7.9401212840007496</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-0.23017748948328001</v>
       </c>
@@ -962,13 +993,19 @@
         <v>-0.284773007051009</v>
       </c>
       <c r="F3" s="1">
+        <v>0.25688370915652969</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2353865722848596</v>
+      </c>
+      <c r="H3" s="1">
         <v>2.5393974497415699</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>2.5179003128698998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.55870831414912</v>
       </c>
@@ -985,13 +1022,19 @@
         <v>-1.2207177122545401</v>
       </c>
       <c r="F4" s="1">
+        <v>-0.24669187846232798</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.7960849563751822E-2</v>
+      </c>
+      <c r="H4" s="1">
         <v>6.22890884455399</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>6.5535615725800698</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7.0508391424576003E-2</v>
       </c>
@@ -1008,13 +1051,19 @@
         <v>0.18130347974915001</v>
       </c>
       <c r="F5" s="1">
+        <v>-0.34754259939773036</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.96185663413013067</v>
+      </c>
+      <c r="H5" s="1">
         <v>12.7545281765432</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>12.1402141418108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.12928773516094599</v>
       </c>
@@ -1031,13 +1080,19 @@
         <v>-0.13889136243904501</v>
       </c>
       <c r="F6" s="1">
+        <v>-0.95161856726501526</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-7.1308086123595515E-2</v>
+      </c>
+      <c r="H6" s="1">
         <v>2.8715083680481501</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>3.7518188491895699</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1.7150649868832799</v>
       </c>
@@ -1054,13 +1109,19 @@
         <v>5.7641858998869304E-3</v>
       </c>
       <c r="F7" s="1">
+        <v>-4.5027724808935687E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.4445508584233657</v>
+      </c>
+      <c r="H7" s="1">
         <v>21.1414711612546</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>22.631049744486901</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.46091620598920202</v>
       </c>
@@ -1077,13 +1138,19 @@
         <v>0.38528040112633</v>
       </c>
       <c r="F8" s="1">
+        <v>-0.78490446945707693</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.45150405307921115</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.70231454496948198</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>1.9387230675057701</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>-1.26506123460653</v>
       </c>
@@ -1100,13 +1167,19 @@
         <v>-0.37066003179240897</v>
       </c>
       <c r="F9" s="1">
+        <v>-1.6679419365881603</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.123292199291867E-2</v>
+      </c>
+      <c r="H9" s="1">
         <v>-1.9234795204025099</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>-0.21430466182143099</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>-0.68685285189352596</v>
       </c>
@@ -1123,13 +1196,19 @@
         <v>0.64437654851883297</v>
       </c>
       <c r="F10" s="1">
+        <v>-0.38022652028776438</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.42249683233962454</v>
+      </c>
+      <c r="H10" s="1">
         <v>5.0266631820618404</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>4.9843928700099802</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>-0.445661970099958</v>
       </c>
@@ -1146,13 +1225,19 @@
         <v>-0.22048656181875101</v>
       </c>
       <c r="F11" s="1">
+        <v>0.91899660906076974</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-2.053247221540516</v>
+      </c>
+      <c r="H11" s="1">
         <v>3.6679617931870898</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>0.69571796258580398</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1.22408179743946</v>
       </c>
@@ -1169,13 +1254,19 @@
         <v>0.33178196391569698</v>
       </c>
       <c r="F12" s="1">
+        <v>-0.57534696260839624</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.1313372134142039</v>
+      </c>
+      <c r="H12" s="1">
         <v>14.1021692579668</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>15.8088534339894</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.35981382705736398</v>
       </c>
@@ -1192,13 +1283,19 @@
         <v>1.09683901314935</v>
       </c>
       <c r="F13" s="1">
+        <v>0.60796432222504038</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1.4606400709248284</v>
+      </c>
+      <c r="H13" s="1">
         <v>10.379611257712099</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>8.3110068645622306</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.400771450594052</v>
       </c>
@@ -1215,13 +1312,19 @@
         <v>0.43518149083380298</v>
       </c>
       <c r="F14" s="1">
+        <v>-1.6178827082891649</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.73994751087733501</v>
+      </c>
+      <c r="H14" s="1">
         <v>5.89584508050301</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>8.25367529966951</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.11068271594512</v>
       </c>
@@ -1238,13 +1341,19 @@
         <v>-0.32593158553122697</v>
       </c>
       <c r="F15" s="1">
+        <v>-5.5561965524534518E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.9091035692174896</v>
+      </c>
+      <c r="H15" s="1">
         <v>-1.2246832289905201</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>0.73998230575150403</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>-0.55584113475407504</v>
       </c>
@@ -1261,13 +1370,19 @@
         <v>1.14880761845109</v>
       </c>
       <c r="F16" s="1">
+        <v>0.51940720394349471</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1.4438931609717651</v>
+      </c>
+      <c r="H16" s="1">
         <v>3.1252834900506699</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>1.16198312513541</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1.7869131368030799</v>
       </c>
@@ -1284,13 +1399,19 @@
         <v>0.99350385596211899</v>
       </c>
       <c r="F17" s="1">
+        <v>0.30115336216671551</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.70178433537471463</v>
+      </c>
+      <c r="H17" s="1">
         <v>20.720881533014001</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>21.121512506222</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.497850478229239</v>
       </c>
@@ -1307,13 +1428,19 @@
         <v>0.54839695950806999</v>
       </c>
       <c r="F18" s="1">
+        <v>0.10567619414892349</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.26219748940247634</v>
+      </c>
+      <c r="H18" s="1">
         <v>12.5779622759826</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>12.2100885924312</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>-1.96661715662964</v>
       </c>
@@ -1330,13 +1457,19 @@
         <v>0.238731735111441</v>
       </c>
       <c r="F19" s="1">
+        <v>-0.64070600830536595</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1.5721441591454761</v>
+      </c>
+      <c r="H19" s="1">
         <v>-4.0151119822438401</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>-4.9465501330839503</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.70135590156368599</v>
       </c>
@@ -1353,13 +1486,19 @@
         <v>-0.62790607603937099</v>
       </c>
       <c r="F20" s="1">
+        <v>-0.84970434603359379</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-1.5146676537817534</v>
+      </c>
+      <c r="H20" s="1">
         <v>9.1288821209866704</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>8.4639188132385108</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>-0.47279140772793399</v>
       </c>
@@ -1376,13 +1515,19 @@
         <v>1.36065244853001</v>
       </c>
       <c r="F21" s="1">
+        <v>-1.0241287906048768</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-1.6015361735745799</v>
+      </c>
+      <c r="H21" s="1">
         <v>18.665599841541201</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>18.088192458571498</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>-1.0678237059868501</v>
       </c>
@@ -1399,13 +1544,19 @@
         <v>-0.60025958714712702</v>
       </c>
       <c r="F22" s="1">
+        <v>0.11764659710015035</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.53090652217028023</v>
+      </c>
+      <c r="H22" s="1">
         <v>-5.6779256988524098</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>-6.3264788181228404</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>-0.21797491465829499</v>
       </c>
@@ -1422,13 +1573,19 @@
         <v>2.1873329930165801</v>
       </c>
       <c r="F23" s="1">
+        <v>-0.9474746141848347</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-1.4617555849959245</v>
+      </c>
+      <c r="H23" s="1">
         <v>2.3534713994025398</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>1.83919042859145</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>-1.0260044483072399</v>
       </c>
@@ -1445,13 +1602,19 @@
         <v>1.53261062618519</v>
       </c>
       <c r="F24" s="1">
+        <v>-0.49055744370065035</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.68791677297584997</v>
+      </c>
+      <c r="H24" s="1">
         <v>12.0711660680004</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>13.2496402846769</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>-0.72889122929114003</v>
       </c>
@@ -1468,13 +1631,19 @@
         <v>-0.23570035910047701</v>
       </c>
       <c r="F25" s="1">
+        <v>-0.25609219219825041</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.1001089405256694</v>
+      </c>
+      <c r="H25" s="1">
         <v>-3.6250539470683001</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>-1.26885281434438</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>-0.62503926784925701</v>
       </c>
@@ -1491,9 +1660,15 @@
         <v>-1.0264209003067799</v>
       </c>
       <c r="F26" s="1">
+        <v>1.8438620052322046</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.2870304760351852</v>
+      </c>
+      <c r="H26" s="1">
         <v>-4.8534819178847703</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>-7.9843743991521601</v>
       </c>
     </row>
